--- a/Documentos/Atividades.xlsx
+++ b/Documentos/Atividades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabricio\Documents\ProjetoPesquisaLeite\projetopesquisa_leite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabricio\Documents\ProjetoPesquisaLeite\projetopesquisa_leite\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Ícones dos Botões (3 em cada aba)</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +438,9 @@
       <c r="H1">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -449,6 +452,9 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -506,6 +512,9 @@
       </c>
       <c r="H7">
         <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
